--- a/Result/KS Vendor Information 2022 Yearly Report.xlsx
+++ b/Result/KS Vendor Information 2022 Yearly Report.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\RPA\TypeA_KS_연도별_보고서작성\Result\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05D09736-81E6-453B-8168-5DA606A8692F}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6A610208-0D4E-4070-9E07-228546D61646}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1044" yWindow="1332" windowWidth="18504" windowHeight="10908" activeTab="1" xr2:uid="{8BAD3796-7DFC-4839-8076-9BA94F4BB645}"/>
+    <workbookView xWindow="2688" yWindow="2052" windowWidth="18504" windowHeight="10908" activeTab="1" xr2:uid="{BF05FE90-331E-4C6E-ACF1-85356B1A5154}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -52,19 +52,19 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>RO874232</t>
-  </si>
-  <si>
-    <t>Telephone Systems</t>
-  </si>
-  <si>
-    <t>Intrarea Telefoanelor 112</t>
-  </si>
-  <si>
-    <t>Bucuresti, Romania</t>
-  </si>
-  <si>
-    <t>C:\RPA\TypeA_KS_연도별_보고서작성\SourceData\RO874232\Yearly-Report-2022-RO874232.xlsx</t>
+    <t>RO874231</t>
+  </si>
+  <si>
+    <t>Copiers and More</t>
+  </si>
+  <si>
+    <t>Strada Copiatoarelor 33</t>
+  </si>
+  <si>
+    <t>Brasov, Romania</t>
+  </si>
+  <si>
+    <t>C:\RPA\TypeA_KS_연도별_보고서작성\SourceData\RO874231\Yearly-Report-2022-RO874231.xlsx</t>
   </si>
 </sst>
 </file>
@@ -213,7 +213,7 @@
         <xdr:cNvPr id="2" name="직사각형 1">
           <a:extLst>
             <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
-              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{65A42655-9AC6-4F42-8AAE-C54695293346}"/>
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4E5A073C-936F-4DFA-8FFD-8DB48FA4BB29}"/>
             </a:ext>
           </a:extLst>
         </xdr:cNvPr>
@@ -560,7 +560,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B1291FA-4820-4E0F-935D-E1A17A913A74}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{52F3C255-6B0F-45DD-BCEE-0796B4E5AA26}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
@@ -573,7 +573,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E642B179-63D5-4242-9CC1-9591E24F580B}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{28628438-B4F3-4311-A9DD-4702B4A8C3F2}">
   <dimension ref="B2:G50"/>
   <sheetViews>
     <sheetView showGridLines="0" tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
